--- a/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -60,22 +60,22 @@
     <t>-1 + x</t>
   </si>
   <si>
-    <t>-0.4506741868524874</t>
+    <t>3.3000000000000007</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.1869798624383242</t>
+    <t>0.75</t>
   </si>
   <si>
     <t>-1 - x</t>
   </si>
   <si>
-    <t>-1.5493258131475125</t>
-  </si>
-  <si>
-    <t>0.3307618713826723</t>
+    <t>-5.300000000000001</t>
+  </si>
+  <si>
+    <t>0.49</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,34 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 + 0.9037999619072424y</t>
-  </si>
-  <si>
-    <t>-0.2827813227558452</t>
+    <t>-1</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.4716596798672763</t>
-  </si>
-  <si>
-    <t>0.2646311302800075</t>
-  </si>
-  <si>
-    <t>0.6905718307197284</t>
-  </si>
-  <si>
-    <t>-1 - 0.23592403205854284y</t>
-  </si>
-  <si>
-    <t>-1.1872196606935703</t>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>6.9679412671287295</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-1 - 0.47515587738203025y</t>
+  </si>
+  <si>
+    <t>-2.6868033647062073</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9232357192894672</t>
-  </si>
-  <si>
-    <t>0.8487936737551718</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>2.6204050180134733</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +123,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>0.5493258131475126</t>
-  </si>
-  <si>
-    <t>0.7935590921365445</t>
+    <t>4.300000000000001</t>
+  </si>
+  <si>
+    <t>3.55</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-0.2888827268270505</t>
+    <t>-8.03166114989224</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>0.30920635059078005</t>
-  </si>
-  <si>
-    <t>-2.838719826727475</t>
+    <t>-7.835155877382031</t>
+  </si>
+  <si>
+    <t>-9.581292425157118</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -617,39 +611,39 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -667,18 +661,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -696,12 +690,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -719,17 +713,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -747,12 +741,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.7640759679414572</v>
+        <v>0.5248441226179698</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-1 + x</t>
-  </si>
-  <si>
-    <t>3.3000000000000007</t>
+    <t>-2.1 + x</t>
+  </si>
+  <si>
+    <t>1.1</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>-1 - x</t>
-  </si>
-  <si>
-    <t>-5.300000000000001</t>
-  </si>
-  <si>
-    <t>0.49</t>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>2.1 - x</t>
+  </si>
+  <si>
+    <t>-3.1</t>
+  </si>
+  <si>
+    <t>0.27</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,34 +87,40 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1</t>
+    <t>-0.8354430379746837 + 0.25316455696202533y</t>
+  </si>
+  <si>
+    <t>-0.16455696202531633</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>6.9679412671287295</t>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>1.4000000000000001</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>-4.521000000000001 + 1.37y</t>
+  </si>
+  <si>
+    <t>3.521000000000001</t>
+  </si>
+  <si>
+    <t>J_0_LP_v</t>
+  </si>
+  <si>
+    <t>0.66</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>-1 - 0.47515587738203025y</t>
-  </si>
-  <si>
-    <t>-2.6868033647062073</t>
-  </si>
-  <si>
-    <t>J_0_LP_v</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>2.6204050180134733</t>
+    <t>9.399999999999999</t>
   </si>
   <si>
     <t>x</t>
@@ -123,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>4.300000000000001</t>
-  </si>
-  <si>
-    <t>3.55</t>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>3.3000000000000003</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-8.03166114989224</t>
+    <t>-9.749896202531648</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-7.835155877382031</t>
-  </si>
-  <si>
-    <t>-9.581292425157118</t>
+    <t>-1.7999999999999998</t>
+  </si>
+  <si>
+    <t>-22.596430379746835</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -611,39 +617,39 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -661,18 +667,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -690,12 +696,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -713,17 +719,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -741,12 +747,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.5248441226179698</v>
+        <v>2.37</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex314/Experimentos_Generador/MitsosBarton2006Ex314__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-2.1 + x</t>
-  </si>
-  <si>
-    <t>1.1</t>
+    <t>-0.9 + x</t>
+  </si>
+  <si>
+    <t>-0.09999999999999998</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>2.1 - x</t>
-  </si>
-  <si>
-    <t>-3.1</t>
-  </si>
-  <si>
-    <t>0.27</t>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.8999999999999999 - x</t>
+  </si>
+  <si>
+    <t>-1.9</t>
+  </si>
+  <si>
+    <t>0.02</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,34 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-0.8354430379746837 + 0.25316455696202533y</t>
-  </si>
-  <si>
-    <t>-0.16455696202531633</t>
+    <t>-28.0 + 10.37037037037037y</t>
+  </si>
+  <si>
+    <t>27.0</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>1.4000000000000001</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>-4.521000000000001 + 1.37y</t>
-  </si>
-  <si>
-    <t>3.521000000000001</t>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.8000000000000003</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>9.399999999999999</t>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>5.8999999999999995</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +123,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>3.3000000000000003</t>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>2.7</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-9.749896202531648</t>
+    <t>-9.397407407407407</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-1.7999999999999998</t>
-  </si>
-  <si>
-    <t>-22.596430379746835</t>
+    <t>-1.43</t>
+  </si>
+  <si>
+    <t>-6.8580000000000005</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -634,22 +628,22 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -667,18 +661,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -696,12 +690,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -719,17 +713,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -747,12 +741,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2.37</v>
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
